--- a/res/testcase/PakringOperation/UpgradeService/businessman.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/businessman.xlsx
@@ -640,10 +640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2006,8 +2006,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/res/testcase/PakringOperation/UpgradeService/businessman.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/businessman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="947" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="947" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="002_setStratup" sheetId="5" r:id="rId3"/>
     <sheet name="003_setStop" sheetId="4" r:id="rId4"/>
     <sheet name="004_editBusiness" sheetId="3" r:id="rId5"/>
-    <sheet name="005_delBusiness" sheetId="6" r:id="rId6"/>
-    <sheet name="006_importBusiness" sheetId="7" r:id="rId7"/>
-    <sheet name="007_exportBusiness" sheetId="8" r:id="rId8"/>
+    <sheet name="005_moreSeting" sheetId="9" r:id="rId6"/>
+    <sheet name="006_resetPassword" sheetId="10" r:id="rId7"/>
+    <sheet name="007_delBusiness" sheetId="6" r:id="rId8"/>
+    <sheet name="008_importBusiness" sheetId="7" r:id="rId9"/>
+    <sheet name="009_exportBusiness" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="202">
   <si>
     <t>动作</t>
   </si>
@@ -251,6 +253,9 @@
     <t>关闭交易码的tab</t>
   </si>
   <si>
+    <t>勾选checkbox链状</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -380,6 +385,135 @@
     <t>12</t>
   </si>
   <si>
+    <t>选择所属停车场</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.所属停车场</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.选择停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2商家管理新增界面</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.确认-提示</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>新增商家成功</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.搜索框</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2搜索界面</t>
+  </si>
+  <si>
+    <t>勾选商家</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.列表首行</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.启用</t>
+  </si>
+  <si>
+    <t>3用户管理查询界面</t>
+  </si>
+  <si>
+    <t>成功启用</t>
+  </si>
+  <si>
+    <t>4操作成功</t>
+  </si>
+  <si>
+    <t>点击禁用</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.禁用</t>
+  </si>
+  <si>
+    <t>成功冻结</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>2商家管理查询界面</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.编辑</t>
+  </si>
+  <si>
+    <t>修改商家名称</t>
+  </si>
+  <si>
+    <t>UIauto商家修改后</t>
+  </si>
+  <si>
+    <t>3修改商家界面</t>
+  </si>
+  <si>
+    <t>修改商家成功</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.更多设置</t>
+  </si>
+  <si>
     <t>选择限制购买</t>
   </si>
   <si>
@@ -389,18 +523,12 @@
     <t>不限制</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>输入发放员数量</t>
   </si>
   <si>
     <t>BusinessmanPage.发放员数量</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>选择发券方式</t>
   </si>
   <si>
@@ -410,21 +538,6 @@
     <t>商家发券</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>选择支持固定二维码发券</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.支持固定二维码发券</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>商家地址</t>
   </si>
   <si>
@@ -434,39 +547,6 @@
     <t>瀚天艾科智泊</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>选择所属停车场</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.所属停车场</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>选择停车场</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.选择停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.确认-二级提示</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>商家链接</t>
   </si>
   <si>
@@ -476,103 +556,19 @@
     <t>www.baidu.com</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2商家管理新增界面</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.确认-提示</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>新增商家成功</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.搜索框</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2搜索界面</t>
-  </si>
-  <si>
-    <t>勾选商家</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.列表首行</t>
-  </si>
-  <si>
-    <t>点击启用</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.启用</t>
-  </si>
-  <si>
-    <t>3用户管理查询界面</t>
-  </si>
-  <si>
-    <t>成功启用</t>
-  </si>
-  <si>
-    <t>4操作成功</t>
-  </si>
-  <si>
-    <t>点击禁用</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.禁用</t>
-  </si>
-  <si>
-    <t>成功冻结</t>
-  </si>
-  <si>
-    <t>点击查询</t>
-  </si>
-  <si>
-    <t>2商家管理查询界面</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>BusinessmanPage.编辑</t>
-  </si>
-  <si>
-    <t>修改商家名称</t>
-  </si>
-  <si>
-    <t>UIauto商家修改后</t>
-  </si>
-  <si>
-    <t>3修改商家界面</t>
-  </si>
-  <si>
-    <t>修改商家成功</t>
+    <t>输入商家图片</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.商家图片</t>
+  </si>
+  <si>
+    <t>G:\upload\凭证.jpg</t>
+  </si>
+  <si>
+    <t>BusinessmanPage.重置密码</t>
+  </si>
+  <si>
+    <t>3密码重置界面</t>
   </si>
   <si>
     <t>删除</t>
@@ -640,10 +636,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1666,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1994,6 +1990,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2001,13 +2005,187 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C10:C11">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C9 C7:C8">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2024,190 +2202,190 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3">
         <v>123456</v>
@@ -2215,20 +2393,18 @@
     </row>
     <row r="13" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -2240,33 +2416,31 @@
         <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="E15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -2275,195 +2449,82 @@
         <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C42:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C10:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C2:C3 C10:C12">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C24">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" display="www.baidu.com"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2491,191 +2552,191 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -2684,10 +2745,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
@@ -2695,14 +2756,14 @@
         <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2743,191 +2804,191 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -2936,10 +2997,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" ht="35" customHeight="1" spans="1:5">
@@ -2947,14 +3008,14 @@
         <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3041,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2995,193 +3056,193 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -3190,10 +3251,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
@@ -3201,13 +3262,13 @@
         <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3236,10 +3297,647 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C43:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C13:C15 C16:C19">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C31">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C42">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" display="www.baidu.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C2:C9 C12:C15">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3253,176 +3951,176 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -3431,25 +4129,25 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E17"/>
@@ -3489,131 +4187,131 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -3622,30 +4320,30 @@
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -3654,39 +4352,39 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3695,28 +4393,28 @@
         <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3731,25 +4429,25 @@
         <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3767,178 +4465,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C10:C11">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C9 C7:C8">
-      <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>